--- a/Resources/montañas marte.xlsx
+++ b/Resources/montañas marte.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KSI Website\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="120" yWindow="60" windowWidth="18912" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -215,6 +220,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -444,7 +452,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,7 +487,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -691,22 +699,22 @@
   <dimension ref="A4:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="46.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="46.33203125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -729,7 +737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -751,7 +759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -772,7 +780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -791,7 +799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -810,7 +818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -829,7 +837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -848,7 +856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -869,7 +877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -890,7 +898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -899,7 +907,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -908,7 +916,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -917,7 +925,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -952,7 +960,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -964,7 +972,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
